--- a/parking_data.xlsx
+++ b/parking_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\Projects\parking-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5908D103-37B1-403B-9DCA-A113AF7E1420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C303EF-F28A-488B-961C-3BF6037C08A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -245,6 +245,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -257,10 +268,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,74 +673,159 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="H3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
